--- a/Libro_PROYECTOS.xlsx
+++ b/Libro_PROYECTOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutad-my.sharepoint.com/personal/javier_pinzon_live_u-tad_com/Documents/PROYECTOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hroma\OneDrive\Escritorio\U-TAD\PROYECTOS_GITHUB\Proyectos3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C975F78C-05E1-4976-85D2-7DD6AC363A6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232DDB0-C830-421A-9B93-29C8720D6057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRINCIPAL" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -399,6 +399,21 @@
   </si>
   <si>
     <t>Añadir a la base de datos la creación de ligas</t>
+  </si>
+  <si>
+    <t>SPRINT 8</t>
+  </si>
+  <si>
+    <t>Seguir avanzando con el frontend de las paginas</t>
+  </si>
+  <si>
+    <t>Implementar superusuario</t>
+  </si>
+  <si>
+    <t>Correo de confirmacion</t>
+  </si>
+  <si>
+    <t>Cambiar configuracion para que puedas ver eventos sin estar logeado</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1029,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,14 +1054,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
@@ -1372,22 +1387,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1428,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="E4" s="47" t="s">
@@ -1424,7 +1439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="41"/>
       <c r="C5" s="42"/>
       <c r="E5" s="47" t="s">
@@ -1435,7 +1450,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="48" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1468,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5</v>
       </c>
@@ -1492,11 +1507,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13"/>
     </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
@@ -1522,7 +1537,7 @@
       <c r="E18" s="44"/>
       <c r="F18" s="45"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1552,7 @@
       </c>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>23</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1584,7 @@
       </c>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +1599,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1631,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
         <v>37</v>
       </c>
@@ -1650,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>43</v>
       </c>
@@ -1702,7 +1717,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>45</v>
       </c>
@@ -1719,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>47</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1753,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>51</v>
       </c>
@@ -1764,7 +1779,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>111</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>112</v>
       </c>
@@ -1780,7 +1795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>113</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>119</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="46" t="s">
         <v>53</v>
       </c>
@@ -1819,7 +1834,7 @@
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>54</v>
       </c>
@@ -1834,7 +1849,7 @@
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>56</v>
       </c>
@@ -1849,7 +1864,7 @@
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +1879,7 @@
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>59</v>
       </c>
@@ -1879,7 +1894,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>60</v>
       </c>
@@ -1894,14 +1909,14 @@
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>62</v>
       </c>
@@ -1916,7 +1931,7 @@
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
@@ -1931,7 +1946,7 @@
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>67</v>
       </c>
@@ -1940,7 +1955,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>68</v>
       </c>
@@ -1971,112 +1986,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB635827-E18A-4129-9C1D-9B4B27A4C256}">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="C3" s="57"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="55"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="51" t="s">
+      <c r="C4" s="59"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="52"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="C5" s="54"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="57"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="51" t="s">
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="52"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="51" t="s">
+      <c r="C9" s="54"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="52"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="51" t="s">
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="52"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="C11" s="54"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="52"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="C12" s="54"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="52"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="57"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="52"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="C15" s="54"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="52"/>
-    </row>
-    <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="60" t="s">
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="61"/>
-    </row>
-    <row r="18" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="56"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
@@ -2087,14 +2102,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>87</v>
       </c>
@@ -2105,29 +2120,29 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="58" t="s">
+    <row r="30" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>93</v>
       </c>
@@ -2138,7 +2153,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>96</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>99</v>
       </c>
@@ -2160,24 +2175,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>103</v>
       </c>
@@ -2185,29 +2200,48 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
@@ -2220,6 +2254,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2234,22 +2274,22 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>110</v>
       </c>
